--- a/aulas cap 3/aula 3.10/Desvio padrão em dados agrupados com intervalo resumido - fim.xlsx
+++ b/aulas cap 3/aula 3.10/Desvio padrão em dados agrupados com intervalo resumido - fim.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEFEAF5-BF62-42CA-A9D5-F2F6F8091F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D388D8-E10D-4BCC-8B14-3FA97C8516E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{20CE811B-9BFA-490E-B090-94113619D91E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>R$ 10.000,00 até R$ 13.999,99</t>
   </si>
@@ -53,12 +53,45 @@
   </si>
   <si>
     <t>R$ 18.000,00 até R$ 21.999,99</t>
+  </si>
+  <si>
+    <t>Mín</t>
+  </si>
+  <si>
+    <t>Máx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>x - média</t>
+  </si>
+  <si>
+    <t>(x - média)²</t>
+  </si>
+  <si>
+    <t>(x - média)² f</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Populacional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,30 +223,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,100 +571,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9855B187-8A4F-42F3-8188-883BED4AC322}">
-  <dimension ref="C2:G10"/>
+  <dimension ref="C2:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="15">
+        <v>5999.99</v>
+      </c>
+      <c r="I5" s="15">
+        <f>AVERAGE(G5:H5)</f>
+        <v>3999.9949999999999</v>
+      </c>
+      <c r="J5">
+        <f>I5 *E5</f>
+        <v>59999.924999999996</v>
+      </c>
+      <c r="K5" s="16">
+        <f>I5 - $E$13</f>
+        <v>-8090.9086363636352</v>
+      </c>
+      <c r="L5" s="16">
+        <f>K5^2</f>
+        <v>65462802.56198366</v>
+      </c>
+      <c r="M5" s="16">
+        <f>L5*E5</f>
+        <v>981942038.42975485</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="15">
+        <v>6000</v>
+      </c>
+      <c r="H6" s="15">
+        <v>9999.99</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" ref="I6:I9" si="0">AVERAGE(G6:H6)</f>
+        <v>7999.9949999999999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J10" si="1">I6 *E6</f>
+        <v>87999.944999999992</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" ref="K6:K10" si="2">I6 - $E$13</f>
+        <v>-4090.9086363636352</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" ref="L6:L10" si="3">K6^2</f>
+        <v>16735533.471074577</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" ref="M6:M10" si="4">L6*E6</f>
+        <v>184090868.18182036</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="15">
+        <v>13999.99</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>11999.994999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>95999.959999999992</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="2"/>
+        <v>-90.908636363636106</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="3"/>
+        <v>8264.3801654958206</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="4"/>
+        <v>66115.041323966565</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="15">
+        <v>14000</v>
+      </c>
+      <c r="H8" s="15">
+        <v>17999.990000000002</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>15999.995000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>95999.97</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="2"/>
+        <v>3909.0913636363657</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="3"/>
+        <v>15280995.289256422</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
+        <v>91685971.735538527</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="15">
+        <v>18000</v>
+      </c>
+      <c r="H9" s="15">
+        <v>21999.99</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>19999.995000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>199999.95</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="2"/>
+        <v>7909.0913636363675</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="3"/>
+        <v>62553726.198347375</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="4"/>
+        <v>625537261.98347378</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <v>24999.99</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>124999.95000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="2"/>
+        <v>12909.086363636367</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="3"/>
+        <v>166644510.7438224</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="4"/>
+        <v>833222553.71911192</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E5:E10)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16">
+        <f>SUM(J5:J10) / E11</f>
+        <v>12090.903636363635</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16">
+        <f>SQRT(SUM(M5:M10) / E11)</f>
+        <v>7027.9245728490123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
